--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2352,28 +2352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.7236417025718</v>
+        <v>217.3104435436058</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.2740595417143</v>
+        <v>297.3337359163719</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.6745703504471</v>
+        <v>268.9566214711205</v>
       </c>
       <c r="AD2" t="n">
-        <v>180723.6417025718</v>
+        <v>217310.4435436058</v>
       </c>
       <c r="AE2" t="n">
-        <v>247274.0595417143</v>
+        <v>297333.7359163719</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.696767008470807e-06</v>
+        <v>4.989725018186245e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.633680555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>223674.5703504471</v>
+        <v>268956.6214711205</v>
       </c>
     </row>
     <row r="3">
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.4771878214455</v>
+        <v>153.7831377027809</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.1564005076088</v>
+        <v>210.4128734380647</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.2488422837819</v>
+        <v>190.3313641135185</v>
       </c>
       <c r="AD3" t="n">
-        <v>129477.1878214455</v>
+        <v>153783.137702781</v>
       </c>
       <c r="AE3" t="n">
-        <v>177156.4005076088</v>
+        <v>210412.8734380647</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.524089267608096e-06</v>
+        <v>6.520487802495346e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.311342592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>160248.8422837819</v>
+        <v>190331.3641135185</v>
       </c>
     </row>
     <row r="4">
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.5116423203979</v>
+        <v>125.9028435477539</v>
       </c>
       <c r="AB4" t="n">
-        <v>138.8927074003011</v>
+        <v>172.2658249834062</v>
       </c>
       <c r="AC4" t="n">
-        <v>125.6369823431928</v>
+        <v>155.8250164236417</v>
       </c>
       <c r="AD4" t="n">
-        <v>101511.6423203979</v>
+        <v>125902.8435477539</v>
       </c>
       <c r="AE4" t="n">
-        <v>138892.7074003011</v>
+        <v>172265.8249834062</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.002951983206e-06</v>
+        <v>7.406509199520061e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.796296296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>125636.9823431928</v>
+        <v>155825.0164236417</v>
       </c>
     </row>
     <row r="5">
@@ -2670,28 +2670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>95.72663321890253</v>
+        <v>120.1178344462586</v>
       </c>
       <c r="AB5" t="n">
-        <v>130.9774027310498</v>
+        <v>164.350520314155</v>
       </c>
       <c r="AC5" t="n">
-        <v>118.4771032423725</v>
+        <v>148.6651373228214</v>
       </c>
       <c r="AD5" t="n">
-        <v>95726.63321890254</v>
+        <v>120117.8344462586</v>
       </c>
       <c r="AE5" t="n">
-        <v>130977.4027310498</v>
+        <v>164350.520314155</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.188709542437168e-06</v>
+        <v>7.750209318107079e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.628472222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>118477.1032423725</v>
+        <v>148665.1373228214</v>
       </c>
     </row>
     <row r="6">
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>91.62176349230316</v>
+        <v>116.0129647196592</v>
       </c>
       <c r="AB6" t="n">
-        <v>125.360938877048</v>
+        <v>158.7340564601532</v>
       </c>
       <c r="AC6" t="n">
-        <v>113.3966668158383</v>
+        <v>143.5847008962872</v>
       </c>
       <c r="AD6" t="n">
-        <v>91621.76349230316</v>
+        <v>116012.9647196592</v>
       </c>
       <c r="AE6" t="n">
-        <v>125360.938877048</v>
+        <v>158734.0564601532</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.299418316782461e-06</v>
+        <v>7.955049535800445e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.53587962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>113396.6668158383</v>
+        <v>143584.7008962872</v>
       </c>
     </row>
     <row r="7">
@@ -2882,28 +2882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>91.46909664788001</v>
+        <v>115.860297875236</v>
       </c>
       <c r="AB7" t="n">
-        <v>125.1520533653226</v>
+        <v>158.5251709484277</v>
       </c>
       <c r="AC7" t="n">
-        <v>113.2077170441792</v>
+        <v>143.3957511246281</v>
       </c>
       <c r="AD7" t="n">
-        <v>91469.09664788001</v>
+        <v>115860.297875236</v>
       </c>
       <c r="AE7" t="n">
-        <v>125152.0533653226</v>
+        <v>158525.1709484277</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.293956403816659e-06</v>
+        <v>7.944943566806085e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.538773148148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>113207.7170441792</v>
+        <v>143395.7511246281</v>
       </c>
     </row>
   </sheetData>
@@ -3179,28 +3179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.647580388741</v>
+        <v>172.8533759323206</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.3354920704575</v>
+        <v>236.5056147032412</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.3610170378294</v>
+        <v>213.9338507737473</v>
       </c>
       <c r="AD2" t="n">
-        <v>137647.580388741</v>
+        <v>172853.3759323206</v>
       </c>
       <c r="AE2" t="n">
-        <v>188335.4920704575</v>
+        <v>236505.6147032412</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.177517693767152e-06</v>
+        <v>6.05683911824755e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>170361.0170378294</v>
+        <v>213933.8507737473</v>
       </c>
     </row>
     <row r="3">
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.93560472459329</v>
+        <v>121.4630289900274</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.9998149980793</v>
+        <v>166.1910748347335</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.21106072462</v>
+        <v>150.330031903191</v>
       </c>
       <c r="AD3" t="n">
-        <v>97935.60472459329</v>
+        <v>121463.0289900274</v>
       </c>
       <c r="AE3" t="n">
-        <v>133999.8149980793</v>
+        <v>166191.0748347334</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.027666393833295e-06</v>
+        <v>7.677353746061687e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.903356481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>121211.06072462</v>
+        <v>150330.031903191</v>
       </c>
     </row>
     <row r="4">
@@ -3391,28 +3391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.49961324653253</v>
+        <v>113.0270375119667</v>
       </c>
       <c r="AB4" t="n">
-        <v>122.4573192881248</v>
+        <v>154.6485791247789</v>
       </c>
       <c r="AC4" t="n">
-        <v>110.7701646052253</v>
+        <v>139.8891357837964</v>
       </c>
       <c r="AD4" t="n">
-        <v>89499.61324653254</v>
+        <v>113027.0375119667</v>
       </c>
       <c r="AE4" t="n">
-        <v>122457.3192881248</v>
+        <v>154648.5791247789</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.338757361150443e-06</v>
+        <v>8.270341141183347e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.622685185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>110770.1646052253</v>
+        <v>139889.1357837964</v>
       </c>
     </row>
     <row r="5">
@@ -3497,28 +3497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>85.78140371346817</v>
+        <v>109.3088279789023</v>
       </c>
       <c r="AB5" t="n">
-        <v>117.3699009691612</v>
+        <v>149.5611608058153</v>
       </c>
       <c r="AC5" t="n">
-        <v>106.1682823503855</v>
+        <v>135.2872535289566</v>
       </c>
       <c r="AD5" t="n">
-        <v>85781.40371346817</v>
+        <v>109308.8279789023</v>
       </c>
       <c r="AE5" t="n">
-        <v>117369.9009691612</v>
+        <v>149561.1608058153</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.460455539074022e-06</v>
+        <v>8.502316650277396e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.524305555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>106168.2823503855</v>
+        <v>135287.2535289566</v>
       </c>
     </row>
   </sheetData>
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.67985688825007</v>
+        <v>96.60674187063155</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.5485189541111</v>
+        <v>132.1816062159983</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.66599363641595</v>
+        <v>119.5663792368281</v>
       </c>
       <c r="AD2" t="n">
-        <v>75679.85688825007</v>
+        <v>96606.74187063155</v>
       </c>
       <c r="AE2" t="n">
-        <v>103548.5189541111</v>
+        <v>132181.6062159983</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.589710904163605e-06</v>
+        <v>9.774883085057414e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.822337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>93665.99363641595</v>
+        <v>119566.3792368281</v>
       </c>
     </row>
     <row r="3">
@@ -3900,28 +3900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.24459817453022</v>
+        <v>92.17148315691171</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.4800023121979</v>
+        <v>126.1130895740851</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.17664770558839</v>
+        <v>114.0770333060005</v>
       </c>
       <c r="AD3" t="n">
-        <v>71244.59817453023</v>
+        <v>92171.48315691171</v>
       </c>
       <c r="AE3" t="n">
-        <v>97480.0023121979</v>
+        <v>126113.0895740851</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.876158624644572e-06</v>
+        <v>1.038494176547291e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.596643518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>88176.64770558839</v>
+        <v>114077.0333060005</v>
       </c>
     </row>
   </sheetData>
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.0420475630984</v>
+        <v>121.9003883094782</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.88194301942</v>
+        <v>166.7894891505371</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.8181224926968</v>
+        <v>150.8713343965743</v>
       </c>
       <c r="AD2" t="n">
-        <v>100042.0475630984</v>
+        <v>121900.3883094782</v>
       </c>
       <c r="AE2" t="n">
-        <v>136881.94301942</v>
+        <v>166789.4891505371</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.135934318472623e-06</v>
+        <v>8.397376589946326e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.056712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>123818.1224926968</v>
+        <v>150871.3343965743</v>
       </c>
     </row>
     <row r="3">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.90392309970628</v>
+        <v>97.84751519210666</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.8550962297289</v>
+        <v>133.8792870134953</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.94331160713278</v>
+        <v>121.1020357617225</v>
       </c>
       <c r="AD3" t="n">
-        <v>75903.92309970627</v>
+        <v>97847.51519210666</v>
       </c>
       <c r="AE3" t="n">
-        <v>103855.0962297289</v>
+        <v>133879.2870134953</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.769608660649112e-06</v>
+        <v>9.683954585848246e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.518518518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>93943.31160713278</v>
+        <v>121102.0357617225</v>
       </c>
     </row>
     <row r="4">
@@ -4409,28 +4409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.1745199104594</v>
+        <v>98.11811200285977</v>
       </c>
       <c r="AB4" t="n">
-        <v>104.2253387240899</v>
+        <v>134.2495295078563</v>
       </c>
       <c r="AC4" t="n">
-        <v>94.27821867747069</v>
+        <v>121.4369428320604</v>
       </c>
       <c r="AD4" t="n">
-        <v>76174.51991045939</v>
+        <v>98118.11200285978</v>
       </c>
       <c r="AE4" t="n">
-        <v>104225.3387240899</v>
+        <v>134249.5295078563</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.767114793111715e-06</v>
+        <v>9.678891172538362e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.521412037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>94278.21867747069</v>
+        <v>121436.9428320604</v>
       </c>
     </row>
   </sheetData>
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.16264981754695</v>
+        <v>87.25562641153365</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.89490048732426</v>
+        <v>119.3869975027687</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.12458016013927</v>
+        <v>107.9928700218389</v>
       </c>
       <c r="AD2" t="n">
-        <v>67162.64981754695</v>
+        <v>87255.62641153365</v>
       </c>
       <c r="AE2" t="n">
-        <v>91894.90048732427</v>
+        <v>119386.9975027686</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.912497289363613e-06</v>
+        <v>1.093917193459031e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.709490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>83124.58016013927</v>
+        <v>107992.8700218389</v>
       </c>
     </row>
   </sheetData>
@@ -5003,28 +5003,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.1145104622941</v>
+        <v>179.8690606260285</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.6027605005362</v>
+        <v>246.1047840113321</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.2168128317834</v>
+        <v>222.6168888355957</v>
       </c>
       <c r="AD2" t="n">
-        <v>156114.5104622941</v>
+        <v>179869.0606260285</v>
       </c>
       <c r="AE2" t="n">
-        <v>213602.7605005362</v>
+        <v>246104.7840113321</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.05895128340987e-06</v>
+        <v>5.783753950758555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.092592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>193216.8128317833</v>
+        <v>222616.8888355957</v>
       </c>
     </row>
     <row r="3">
@@ -5109,28 +5109,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.7562694015524</v>
+        <v>137.2172786751843</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.2274169649218</v>
+        <v>187.7467342823977</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.939747696734</v>
+        <v>169.8284494667351</v>
       </c>
       <c r="AD3" t="n">
-        <v>101756.2694015524</v>
+        <v>137217.2786751843</v>
       </c>
       <c r="AE3" t="n">
-        <v>139227.4169649218</v>
+        <v>187746.7342823977</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.919446221478948e-06</v>
+        <v>7.410746516693417e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.975694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>125939.747696734</v>
+        <v>169828.4494667351</v>
       </c>
     </row>
     <row r="4">
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>92.79533337451478</v>
+        <v>116.5497940296981</v>
       </c>
       <c r="AB4" t="n">
-        <v>126.9666689641383</v>
+        <v>159.4685700053858</v>
       </c>
       <c r="AC4" t="n">
-        <v>114.8491482770736</v>
+        <v>144.2491134996594</v>
       </c>
       <c r="AD4" t="n">
-        <v>92795.33337451478</v>
+        <v>116549.7940296981</v>
       </c>
       <c r="AE4" t="n">
-        <v>126966.6689641383</v>
+        <v>159468.5700053858</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.248040928464029e-06</v>
+        <v>8.032041450362574e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.666087962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>114849.1482770736</v>
+        <v>144249.1134996593</v>
       </c>
     </row>
     <row r="5">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>87.16011778968287</v>
+        <v>110.9145784448662</v>
       </c>
       <c r="AB5" t="n">
-        <v>119.2563183928094</v>
+        <v>151.7582194340569</v>
       </c>
       <c r="AC5" t="n">
-        <v>107.8746627427249</v>
+        <v>137.2746279653107</v>
       </c>
       <c r="AD5" t="n">
-        <v>87160.11778968287</v>
+        <v>110914.5784448662</v>
       </c>
       <c r="AE5" t="n">
-        <v>119256.3183928095</v>
+        <v>151758.2194340569</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.425933262050579e-06</v>
+        <v>8.368393811634555e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.518518518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>107874.6627427249</v>
+        <v>137274.6279653106</v>
       </c>
     </row>
     <row r="6">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>87.18549902209026</v>
+        <v>110.9399596772736</v>
       </c>
       <c r="AB6" t="n">
-        <v>119.2910461147302</v>
+        <v>151.7929471559776</v>
       </c>
       <c r="AC6" t="n">
-        <v>107.9060760996061</v>
+        <v>137.3060413221919</v>
       </c>
       <c r="AD6" t="n">
-        <v>87185.49902209025</v>
+        <v>110939.9596772736</v>
       </c>
       <c r="AE6" t="n">
-        <v>119291.0461147302</v>
+        <v>151792.9471559776</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.425717896029288e-06</v>
+        <v>8.367986605386042e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.521412037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>107906.0760996061</v>
+        <v>137306.0413221919</v>
       </c>
     </row>
   </sheetData>
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.43753036983753</v>
+        <v>85.03670833943481</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.53451595207075</v>
+        <v>116.350975904768</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.98946741210914</v>
+        <v>105.2466020640674</v>
       </c>
       <c r="AD2" t="n">
-        <v>65437.53036983754</v>
+        <v>85036.70833943482</v>
       </c>
       <c r="AE2" t="n">
-        <v>89534.51595207075</v>
+        <v>116350.975904768</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.857509262715902e-06</v>
+        <v>1.113616421469984e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.836805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>80989.46741210914</v>
+        <v>105246.6020640674</v>
       </c>
     </row>
   </sheetData>
@@ -6021,28 +6021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.0075448983786</v>
+        <v>140.7128748856717</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.4631290553428</v>
+        <v>192.5295632324051</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.0533146332703</v>
+        <v>174.1548119344978</v>
       </c>
       <c r="AD2" t="n">
-        <v>118007.5448983786</v>
+        <v>140712.8748856717</v>
       </c>
       <c r="AE2" t="n">
-        <v>161463.1290553428</v>
+        <v>192529.5632324051</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.606830651105555e-06</v>
+        <v>7.069338230004688e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.49074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>146053.3146332703</v>
+        <v>174154.8119344978</v>
       </c>
     </row>
     <row r="3">
@@ -6127,28 +6127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.26357133888736</v>
+        <v>109.054152672201</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.0296239859937</v>
+        <v>149.2127028157052</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.7650423284189</v>
+        <v>134.9720518803586</v>
       </c>
       <c r="AD3" t="n">
-        <v>86263.57133888736</v>
+        <v>109054.152672201</v>
       </c>
       <c r="AE3" t="n">
-        <v>118029.6239859937</v>
+        <v>149212.7028157052</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.405276098569972e-06</v>
+        <v>8.634280272571413e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.677662037037038</v>
       </c>
       <c r="AH3" t="n">
-        <v>106765.0423284189</v>
+        <v>134972.0518803586</v>
       </c>
     </row>
     <row r="4">
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.99567198329326</v>
+        <v>103.7862533166069</v>
       </c>
       <c r="AB4" t="n">
-        <v>110.8218516843561</v>
+        <v>142.0049305140676</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.2451696990753</v>
+        <v>128.4521792510151</v>
       </c>
       <c r="AD4" t="n">
-        <v>80995.67198329326</v>
+        <v>103786.2533166069</v>
       </c>
       <c r="AE4" t="n">
-        <v>110821.8516843561</v>
+        <v>142004.9305140676</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.611660588530803e-06</v>
+        <v>9.038791020674574e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.512731481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>100245.1696990753</v>
+        <v>128452.179251015</v>
       </c>
     </row>
   </sheetData>
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.7019601205575</v>
+        <v>165.5542510639992</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.8321880003934</v>
+        <v>226.5186300437462</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.7646949702382</v>
+        <v>204.9000099133303</v>
       </c>
       <c r="AD2" t="n">
-        <v>130701.9601205575</v>
+        <v>165554.2510639992</v>
       </c>
       <c r="AE2" t="n">
-        <v>178832.1880003934</v>
+        <v>226518.6300437462</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.31442856373801e-06</v>
+        <v>6.372662012041827e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.788773148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>161764.6949702382</v>
+        <v>204900.0099133303</v>
       </c>
     </row>
     <row r="3">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.14471387638731</v>
+        <v>117.4364684083962</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.8129508972657</v>
+        <v>160.6817570076326</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.5192236537768</v>
+        <v>145.3465156371308</v>
       </c>
       <c r="AD3" t="n">
-        <v>94144.71387638731</v>
+        <v>117436.4684083961</v>
       </c>
       <c r="AE3" t="n">
-        <v>128812.9508972657</v>
+        <v>160681.7570076326</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.139196513524418e-06</v>
+        <v>7.958445890402382e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.833912037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>116519.2236537768</v>
+        <v>145346.5156371308</v>
       </c>
     </row>
     <row r="4">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.73316460305668</v>
+        <v>109.0249191350655</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.3038980901369</v>
+        <v>149.1727042005038</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.1085786934996</v>
+        <v>134.9358706768536</v>
       </c>
       <c r="AD4" t="n">
-        <v>85733.16460305668</v>
+        <v>109024.9191350655</v>
       </c>
       <c r="AE4" t="n">
-        <v>117303.8980901369</v>
+        <v>149172.7042005038</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.464211467004553e-06</v>
+        <v>8.583353142907013e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.556134259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>106108.5786934996</v>
+        <v>134935.8706768536</v>
       </c>
     </row>
     <row r="5">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>83.79075489766269</v>
+        <v>106.9119172290794</v>
       </c>
       <c r="AB5" t="n">
-        <v>114.6462074381499</v>
+        <v>146.2816017736699</v>
       </c>
       <c r="AC5" t="n">
-        <v>103.7045343072452</v>
+        <v>132.3206910079481</v>
       </c>
       <c r="AD5" t="n">
-        <v>83790.7548976627</v>
+        <v>106911.9172290794</v>
       </c>
       <c r="AE5" t="n">
-        <v>114646.2074381499</v>
+        <v>146281.6017736699</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.536223723825244e-06</v>
+        <v>8.721811330983047e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.498263888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>103704.5343072452</v>
+        <v>132320.6910079481</v>
       </c>
     </row>
   </sheetData>
@@ -7145,28 +7145,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.6954579837383</v>
+        <v>208.8034321012542</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.2895443991427</v>
+        <v>285.694067558095</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.7384019162153</v>
+        <v>258.4278267245767</v>
       </c>
       <c r="AD2" t="n">
-        <v>172695.4579837383</v>
+        <v>208803.4321012542</v>
       </c>
       <c r="AE2" t="n">
-        <v>236289.5443991427</v>
+        <v>285694.067558095</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.80254978114395e-06</v>
+        <v>5.220937678891537e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.465856481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>213738.4019162153</v>
+        <v>258427.8267245767</v>
       </c>
     </row>
     <row r="3">
@@ -7251,28 +7251,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.124839056809</v>
+        <v>147.2252985895272</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.4648366819888</v>
+        <v>201.4401486518724</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.3867891109898</v>
+        <v>182.2149835876192</v>
       </c>
       <c r="AD3" t="n">
-        <v>123124.839056809</v>
+        <v>147225.2985895272</v>
       </c>
       <c r="AE3" t="n">
-        <v>168464.8366819888</v>
+        <v>201440.1486518724</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.673013061297898e-06</v>
+        <v>6.842544748291113e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.169560185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>152386.7891109898</v>
+        <v>182214.9835876192</v>
       </c>
     </row>
     <row r="4">
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.27577761190277</v>
+        <v>121.4614884906415</v>
       </c>
       <c r="AB4" t="n">
-        <v>133.0970104329789</v>
+        <v>166.1889670555117</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.3944185601182</v>
+        <v>150.3281252874598</v>
       </c>
       <c r="AD4" t="n">
-        <v>97275.77761190277</v>
+        <v>121461.4884906415</v>
       </c>
       <c r="AE4" t="n">
-        <v>133097.0104329789</v>
+        <v>166188.9670555117</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.130399349720333e-06</v>
+        <v>7.694620712507638e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.709490740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>120394.4185601182</v>
+        <v>150328.1252874598</v>
       </c>
     </row>
     <row r="5">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>92.55121444473872</v>
+        <v>116.7369253234775</v>
       </c>
       <c r="AB5" t="n">
-        <v>126.6326546746518</v>
+        <v>159.7246112971846</v>
       </c>
       <c r="AC5" t="n">
-        <v>114.5470118425835</v>
+        <v>144.4807185699251</v>
       </c>
       <c r="AD5" t="n">
-        <v>92551.21444473873</v>
+        <v>116736.9253234775</v>
       </c>
       <c r="AE5" t="n">
-        <v>126632.6546746518</v>
+        <v>159724.6112971846</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.283496704595066e-06</v>
+        <v>7.979829472752336e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.576388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>114547.0118425835</v>
+        <v>144480.7185699251</v>
       </c>
     </row>
     <row r="6">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>89.74878405473268</v>
+        <v>113.9344949334714</v>
       </c>
       <c r="AB6" t="n">
-        <v>122.7982457805443</v>
+        <v>155.8902024030771</v>
       </c>
       <c r="AC6" t="n">
-        <v>111.0785535517018</v>
+        <v>141.0122602790434</v>
       </c>
       <c r="AD6" t="n">
-        <v>89748.78405473268</v>
+        <v>113934.4949334714</v>
       </c>
       <c r="AE6" t="n">
-        <v>122798.2457805443</v>
+        <v>155890.2024030771</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.351098821529725e-06</v>
+        <v>8.105767089222767e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.521412037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>111078.5535517018</v>
+        <v>141012.2602790434</v>
       </c>
     </row>
   </sheetData>
@@ -7866,28 +7866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.0955623084614</v>
+        <v>128.2512779406586</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.1646289562437</v>
+        <v>175.4790565253901</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.3103205085355</v>
+        <v>158.7315816570585</v>
       </c>
       <c r="AD2" t="n">
-        <v>106095.5623084614</v>
+        <v>128251.2779406586</v>
       </c>
       <c r="AE2" t="n">
-        <v>145164.6289562437</v>
+        <v>175479.0565253901</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.938645661653722e-06</v>
+        <v>7.895004810926735e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.207175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>131310.3205085355</v>
+        <v>158731.5816570585</v>
       </c>
     </row>
     <row r="3">
@@ -7972,28 +7972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.58219021673339</v>
+        <v>99.65256499435898</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.151375339164</v>
+        <v>136.3490357861128</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.02043706121208</v>
+        <v>123.3360751777963</v>
       </c>
       <c r="AD3" t="n">
-        <v>77582.19021673339</v>
+        <v>99652.56499435898</v>
       </c>
       <c r="AE3" t="n">
-        <v>106151.375339164</v>
+        <v>136349.0357861127</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.739123332987028e-06</v>
+        <v>9.499560185822376e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.49537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>96020.43706121208</v>
+        <v>123336.0751777963</v>
       </c>
     </row>
     <row r="4">
@@ -8078,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.64237700243743</v>
+        <v>99.88334398065523</v>
       </c>
       <c r="AB4" t="n">
-        <v>106.2337255546178</v>
+        <v>136.6647977764134</v>
       </c>
       <c r="AC4" t="n">
-        <v>96.09492788768227</v>
+        <v>123.6217012869175</v>
       </c>
       <c r="AD4" t="n">
-        <v>77642.37700243742</v>
+        <v>99883.34398065522</v>
       </c>
       <c r="AE4" t="n">
-        <v>106233.7255546178</v>
+        <v>136664.7977764134</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.726981867270303e-06</v>
+        <v>9.475222649907812e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.506944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>96094.92788768228</v>
+        <v>123621.7012869175</v>
       </c>
     </row>
   </sheetData>
@@ -8375,28 +8375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.62990125899294</v>
+        <v>98.92039927273674</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.2166556920461</v>
+        <v>135.3472543449178</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.07948714883672</v>
+        <v>122.4299023513395</v>
       </c>
       <c r="AD2" t="n">
-        <v>77629.90125899295</v>
+        <v>98920.39927273674</v>
       </c>
       <c r="AE2" t="n">
-        <v>106216.6556920461</v>
+        <v>135347.2543449178</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.578949052354055e-06</v>
+        <v>9.579447775460175e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.77025462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>96079.48714883672</v>
+        <v>122429.9023513396</v>
       </c>
     </row>
     <row r="3">
@@ -8481,28 +8481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.72407538647469</v>
+        <v>94.01457340021851</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.50428830350738</v>
+        <v>128.634886956379</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.00773868299116</v>
+        <v>116.358153885494</v>
       </c>
       <c r="AD3" t="n">
-        <v>72724.07538647469</v>
+        <v>94014.57340021851</v>
       </c>
       <c r="AE3" t="n">
-        <v>99504.28830350738</v>
+        <v>128634.886956379</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.856893180802312e-06</v>
+        <v>1.016092427422075e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.55324074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>90007.73868299116</v>
+        <v>116358.153885494</v>
       </c>
     </row>
   </sheetData>
@@ -14671,28 +14671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.56312926775101</v>
+        <v>90.09389967353871</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.179342372771</v>
+        <v>123.2704481956211</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.09555952178316</v>
+        <v>111.505689631024</v>
       </c>
       <c r="AD2" t="n">
-        <v>69563.12926775101</v>
+        <v>90093.89967353872</v>
       </c>
       <c r="AE2" t="n">
-        <v>95179.342372771</v>
+        <v>123270.4481956211</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.869209573238002e-06</v>
+        <v>1.058495932542551e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.666087962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>86095.55952178316</v>
+        <v>111505.689631024</v>
       </c>
     </row>
     <row r="3">
@@ -14777,28 +14777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.39436202929923</v>
+        <v>89.92513243508694</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.94842759163632</v>
+        <v>123.0395334144864</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.88668292326895</v>
+        <v>111.2968130325098</v>
       </c>
       <c r="AD3" t="n">
-        <v>69394.36202929923</v>
+        <v>89925.13243508694</v>
       </c>
       <c r="AE3" t="n">
-        <v>94948.42759163631</v>
+        <v>123039.5334144864</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.906731016825899e-06</v>
+        <v>1.066652553206242e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.640046296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>85886.68292326895</v>
+        <v>111296.8130325098</v>
       </c>
     </row>
   </sheetData>
@@ -15074,28 +15074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.00857207094526</v>
+        <v>91.94807540700556</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.89354921830768</v>
+        <v>125.8074132346093</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.3598490824142</v>
+        <v>113.8005302873448</v>
       </c>
       <c r="AD2" t="n">
-        <v>73008.57207094526</v>
+        <v>91948.07540700556</v>
       </c>
       <c r="AE2" t="n">
-        <v>99893.54921830769</v>
+        <v>125807.4132346093</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.726722001959912e-06</v>
+        <v>1.124263573073938e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.053819444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>90359.84908241421</v>
+        <v>113800.5302873448</v>
       </c>
     </row>
   </sheetData>
@@ -15371,28 +15371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.7437465614911</v>
+        <v>159.2281746103797</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.6798973510521</v>
+        <v>217.8630131531123</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.3904474986557</v>
+        <v>197.0704729505011</v>
       </c>
       <c r="AD2" t="n">
-        <v>124743.7465614911</v>
+        <v>159228.1746103797</v>
       </c>
       <c r="AE2" t="n">
-        <v>170679.8973510521</v>
+        <v>217863.0131531123</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.444232455138372e-06</v>
+        <v>6.683802400912783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.652777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>154390.4474986557</v>
+        <v>197070.4729505011</v>
       </c>
     </row>
     <row r="3">
@@ -15477,28 +15477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.83921004377338</v>
+        <v>112.8857226460802</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.9219706080628</v>
+        <v>154.4552258909013</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.1904702553309</v>
+        <v>139.714235911187</v>
       </c>
       <c r="AD3" t="n">
-        <v>89839.21004377338</v>
+        <v>112885.7226460802</v>
       </c>
       <c r="AE3" t="n">
-        <v>122921.9706080628</v>
+        <v>154455.2258909013</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.285986071984888e-06</v>
+        <v>8.317291115317725e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.738425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>111190.4702553309</v>
+        <v>139714.235911187</v>
       </c>
     </row>
     <row r="4">
@@ -15583,28 +15583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.58725397428465</v>
+        <v>105.6337665765915</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.9995243800713</v>
+        <v>144.5327796629098</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.215008369095</v>
+        <v>130.7387740249511</v>
       </c>
       <c r="AD4" t="n">
-        <v>82587.25397428466</v>
+        <v>105633.7665765915</v>
       </c>
       <c r="AE4" t="n">
-        <v>112999.5243800714</v>
+        <v>144532.7796629098</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.560902049900738e-06</v>
+        <v>8.850787067515131e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>102215.008369095</v>
+        <v>130738.7740249511</v>
       </c>
     </row>
     <row r="5">
@@ -15689,28 +15689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>82.45053696791102</v>
+        <v>105.4970495702179</v>
       </c>
       <c r="AB5" t="n">
-        <v>112.8124621404224</v>
+        <v>144.3457174232609</v>
       </c>
       <c r="AC5" t="n">
-        <v>102.0457990870545</v>
+        <v>130.5695647429107</v>
       </c>
       <c r="AD5" t="n">
-        <v>82450.53696791102</v>
+        <v>105497.0495702179</v>
       </c>
       <c r="AE5" t="n">
-        <v>112812.4621404224</v>
+        <v>144345.7174232609</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.576578298490338e-06</v>
+        <v>8.881208053707324e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.501157407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>102045.7990870545</v>
+        <v>130569.5647429107</v>
       </c>
     </row>
   </sheetData>
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.2088632955365</v>
+        <v>188.1826142123361</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.6778111446172</v>
+        <v>257.4797547962115</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.2348761863279</v>
+        <v>232.9062483736416</v>
       </c>
       <c r="AD2" t="n">
-        <v>164208.8632955365</v>
+        <v>188182.6142123361</v>
       </c>
       <c r="AE2" t="n">
-        <v>224677.8111446172</v>
+        <v>257479.7547962115</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.927066620345147e-06</v>
+        <v>5.492325060895973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>203234.876186328</v>
+        <v>232906.2483736416</v>
       </c>
     </row>
     <row r="3">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.5508498527799</v>
+        <v>142.439259915008</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.2065028628773</v>
+        <v>194.891679392274</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.7257418879456</v>
+        <v>176.2914910433205</v>
       </c>
       <c r="AD3" t="n">
-        <v>118550.8498527799</v>
+        <v>142439.259915008</v>
       </c>
       <c r="AE3" t="n">
-        <v>162206.5028628773</v>
+        <v>194891.679392274</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.784539780116546e-06</v>
+        <v>7.101281034676573e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.079861111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>146725.7418879456</v>
+        <v>176291.4910433205</v>
       </c>
     </row>
     <row r="4">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.77681286548953</v>
+        <v>119.7504742737381</v>
       </c>
       <c r="AB4" t="n">
-        <v>131.0460607372799</v>
+        <v>163.8478819193258</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.5392086248501</v>
+        <v>148.2104700309372</v>
       </c>
       <c r="AD4" t="n">
-        <v>95776.81286548953</v>
+        <v>119750.4742737381</v>
       </c>
       <c r="AE4" t="n">
-        <v>131046.0607372799</v>
+        <v>163847.8819193258</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.15568089564758e-06</v>
+        <v>7.797687339812062e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.715277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>118539.2086248501</v>
+        <v>148210.4700309372</v>
       </c>
     </row>
     <row r="5">
@@ -16304,28 +16304,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>89.9392343750324</v>
+        <v>113.912895783281</v>
       </c>
       <c r="AB5" t="n">
-        <v>123.0588283108534</v>
+        <v>155.8606494928993</v>
       </c>
       <c r="AC5" t="n">
-        <v>111.3142664510481</v>
+        <v>140.9855278571352</v>
       </c>
       <c r="AD5" t="n">
-        <v>89939.23437503239</v>
+        <v>113912.895783281</v>
       </c>
       <c r="AE5" t="n">
-        <v>123058.8283108534</v>
+        <v>155860.6494928993</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.347096405541769e-06</v>
+        <v>8.156857915134351e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.55324074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>111314.2664510481</v>
+        <v>140985.5278571352</v>
       </c>
     </row>
     <row r="6">
@@ -16410,28 +16410,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>88.43690482057669</v>
+        <v>112.4105662288253</v>
       </c>
       <c r="AB6" t="n">
-        <v>121.0032747363459</v>
+        <v>153.8050959183918</v>
       </c>
       <c r="AC6" t="n">
-        <v>109.4548920247034</v>
+        <v>139.1261534307905</v>
       </c>
       <c r="AD6" t="n">
-        <v>88436.90482057669</v>
+        <v>112410.5662288253</v>
       </c>
       <c r="AE6" t="n">
-        <v>121003.2747363459</v>
+        <v>153805.0959183918</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.391667501682774e-06</v>
+        <v>8.240490773582234e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.515625</v>
       </c>
       <c r="AH6" t="n">
-        <v>109454.8920247034</v>
+        <v>139126.1534307905</v>
       </c>
     </row>
   </sheetData>
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.87604556698025</v>
+        <v>89.28177234801841</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.97573237515473</v>
+        <v>122.1592597603158</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.72050458358918</v>
+        <v>110.5005514604211</v>
       </c>
       <c r="AD2" t="n">
-        <v>70876.04556698025</v>
+        <v>89281.77234801841</v>
       </c>
       <c r="AE2" t="n">
-        <v>96975.73237515474</v>
+        <v>122159.2597603158</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.340268911588164e-06</v>
+        <v>1.085468316690699e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.57175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>87720.50458358918</v>
+        <v>110500.5514604211</v>
       </c>
     </row>
   </sheetData>
@@ -17004,28 +17004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.38528527588589</v>
+        <v>104.0131792245714</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.7231818966922</v>
+        <v>142.315420552609</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.9650396244803</v>
+        <v>128.7330365560536</v>
       </c>
       <c r="AD2" t="n">
-        <v>82385.28527588589</v>
+        <v>104013.1792245714</v>
       </c>
       <c r="AE2" t="n">
-        <v>112723.1818966922</v>
+        <v>142315.420552609</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.391633097141218e-06</v>
+        <v>9.04361739107155e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.874421296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>101965.0396244803</v>
+        <v>128733.0365560536</v>
       </c>
     </row>
     <row r="3">
@@ -17110,28 +17110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.53412063342162</v>
+        <v>96.16201458210716</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.9808720639394</v>
+        <v>131.5731107198563</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.2479607652355</v>
+        <v>119.0159576968089</v>
       </c>
       <c r="AD3" t="n">
-        <v>74534.12063342163</v>
+        <v>96162.01458210716</v>
       </c>
       <c r="AE3" t="n">
-        <v>101980.8720639394</v>
+        <v>131573.1107198563</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.799679967109722e-06</v>
+        <v>9.883901560534995e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.544560185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>92247.9607652355</v>
+        <v>119015.9576968089</v>
       </c>
     </row>
   </sheetData>
@@ -17407,28 +17407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.6131159716626</v>
+        <v>134.0504792831888</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.71398929552</v>
+        <v>183.4137796449428</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.1391804926274</v>
+        <v>165.9090259385374</v>
       </c>
       <c r="AD2" t="n">
-        <v>111613.1159716626</v>
+        <v>134050.4792831888</v>
       </c>
       <c r="AE2" t="n">
-        <v>152713.98929552</v>
+        <v>183413.7796449428</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.779362124552453e-06</v>
+        <v>7.487612193837111e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.334490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>138139.1804926274</v>
+        <v>165909.0259385374</v>
       </c>
     </row>
     <row r="3">
@@ -17513,28 +17513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.02755732226609</v>
+        <v>104.5501719798129</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.2337227287063</v>
+        <v>143.0501577307784</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.5222937525266</v>
+        <v>129.3976514491489</v>
       </c>
       <c r="AD3" t="n">
-        <v>82027.55732226609</v>
+        <v>104550.1719798129</v>
       </c>
       <c r="AE3" t="n">
-        <v>112233.7227287063</v>
+        <v>143050.1577307784</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.562764864670922e-06</v>
+        <v>9.039677255686954e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.587962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>101522.2937525266</v>
+        <v>129397.6514491489</v>
       </c>
     </row>
     <row r="4">
@@ -17619,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.1528067898282</v>
+        <v>101.5048292467828</v>
       </c>
       <c r="AB4" t="n">
-        <v>108.3003622251841</v>
+        <v>138.8833854524093</v>
       </c>
       <c r="AC4" t="n">
-        <v>97.96432765495321</v>
+        <v>125.6285500689244</v>
       </c>
       <c r="AD4" t="n">
-        <v>79152.8067898282</v>
+        <v>101504.8292467828</v>
       </c>
       <c r="AE4" t="n">
-        <v>108300.3622251841</v>
+        <v>138883.3854524093</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.680606386593229e-06</v>
+        <v>9.273143006627737e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.498263888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>97964.3276549532</v>
+        <v>125628.5500689244</v>
       </c>
     </row>
   </sheetData>
